--- a/scenario/scenario-02.xlsx
+++ b/scenario/scenario-02.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://darden44-my.sharepoint.com/personal/xub4jj_darden_virginia_edu/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1400BC5A-B2EE-4D9A-9089-EA9AE3363CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC82751F-BD61-4022-97EC-ED100C6EDC53}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3DAB70-1CBA-4EDD-8EB0-7E1FD51FC794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4A949103-E5F6-4C1D-83FB-5698C48B1072}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4A949103-E5F6-4C1D-83FB-5698C48B1072}"/>
   </bookViews>
   <sheets>
-    <sheet name="HPI Score" sheetId="4" r:id="rId1"/>
-    <sheet name="SNH Composite" sheetId="5" r:id="rId2"/>
-    <sheet name="Sensitivity 2" sheetId="6" r:id="rId3"/>
-    <sheet name="Spider" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Scenario Description" sheetId="7" r:id="rId1"/>
+    <sheet name="HPI Score" sheetId="4" r:id="rId2"/>
+    <sheet name="SNH Composite" sheetId="5" r:id="rId3"/>
+    <sheet name="Sensitivity 2" sheetId="8" r:id="rId4"/>
+    <sheet name="Spider" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="PalisadeReportWorkbookCreatedBy">"PrecisionTree"</definedName>
-    <definedName name="PalisadeReportWorksheetCreatedBy" localSheetId="3">"PrecisionTree"</definedName>
+    <definedName name="PalisadeReportWorksheetCreatedBy" localSheetId="4">"PrecisionTree"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="178">
   <si>
     <r>
       <t>Performed By:</t>
@@ -250,9 +251,6 @@
   </si>
   <si>
     <t>Landscape Complexity</t>
-  </si>
-  <si>
-    <t>Average SDI values range from .5-3.5, but we assume that in ag landscapes, they will skew lower.</t>
   </si>
   <si>
     <t>Pest Management Score</t>
@@ -620,6 +618,60 @@
   </si>
   <si>
     <t>No management</t>
+  </si>
+  <si>
+    <t>Grassed Waterway (Composite SNH Score = 9.3)</t>
+  </si>
+  <si>
+    <t>Grassed Waterway (Base Practice Score = 2)</t>
+  </si>
+  <si>
+    <t>Predominately introduced species (Vegetative diversity score = 1)</t>
+  </si>
+  <si>
+    <t>Practice covers 10% of the field (size ratio = 1.1)</t>
+  </si>
+  <si>
+    <t>Practice is located within the field (configuration score =4)</t>
+  </si>
+  <si>
+    <t>Spot treatment of invasive/noxious species (mgmt. score = 2)</t>
+  </si>
+  <si>
+    <t>No Cover Crop (Cover Crop Score = 0)</t>
+  </si>
+  <si>
+    <t>Conservation or strip-till, i.e. 15-30% residue, and no crop left unharvested (Tillage Score = 1)</t>
+  </si>
+  <si>
+    <t>Nonchemical products (Organic operation) with no setback around grassed waterway (Pest Mgmt. score = 5)</t>
+  </si>
+  <si>
+    <t>No Cropland conversion in previous 20 years (Conversion score = 0)</t>
+  </si>
+  <si>
+    <t>6x6 km</t>
+  </si>
+  <si>
+    <t>USDA NASS Croland Data Layer</t>
+  </si>
+  <si>
+    <t>USGS National Land Cover Database</t>
+  </si>
+  <si>
+    <t>USGS NLCD Legend</t>
+  </si>
+  <si>
+    <t>USDA NASS Cropland Data Layer Legend</t>
+  </si>
+  <si>
+    <t>Simpson Diversity Index values range from 0-1.0. (1+SiDI)</t>
+  </si>
+  <si>
+    <t>Relatively simple ag landscape in Johnson County, IA (0.398 Simpson Diversity Index score)</t>
+  </si>
+  <si>
+    <t>Corn-Soy Rotation (Crop Rotation Score = 1)</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1404,6 +1456,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -2950,13 +3008,200 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>416617</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC8C4D4-0A84-51AF-3E07-7042B48F2F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2393950"/>
+          <a:ext cx="4074217" cy="3730171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>516640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Map&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6934DFA6-0ACD-F924-D057-7FD1C00C50F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2393950"/>
+          <a:ext cx="4174240" cy="3730172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44891</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C913F835-EF3F-8D7E-E075-87D4EC42FFD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6826250"/>
+          <a:ext cx="8490391" cy="3410120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103471</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF88F35-4FA7-7B4E-392F-4C53B1EDCA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445500" y="2476500"/>
+          <a:ext cx="3119721" cy="4529138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>341</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1129</xdr:row>
+      <xdr:col>340</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2964,7 +3209,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DD8866-DA68-ECA9-B6E6-FDC2D1F224E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C18087C-8EC0-0E67-C5C6-956C719B26AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +3233,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="207930750" cy="207937100"/>
+          <a:ext cx="207498950" cy="27654250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3010,7 +3255,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3051,7 +3296,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3407,7 +3652,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HPI Score"/>
@@ -3432,8 +3677,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="_PTreeMain"/>
     </sheetNames>
@@ -3791,11 +4039,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588DF569-9390-416C-AD1E-DBDAE5711B8E}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554C5B56-DAB7-445A-B301-788F2D350FB4}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3869,21 +4220,21 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="33">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3895,12 +4246,12 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3914,7 +4265,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3932,7 +4283,7 @@
       </c>
       <c r="B9" s="35">
         <f>(SUM(B2:B4)*B5)+B6+B7+B8</f>
-        <v>15.270000000000001</v>
+        <v>20.3994</v>
       </c>
       <c r="C9" s="35">
         <f t="shared" ref="C9" si="0">(SUM(C2:C4)*C5)+C6+C7+C8</f>
@@ -3946,27 +4297,27 @@
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="D11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="E11" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="40">
         <v>7</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="33">
         <v>0</v>
@@ -3974,13 +4325,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="40">
         <v>5</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="33">
         <v>2</v>
@@ -3988,13 +4339,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="40">
         <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="33">
         <v>3</v>
@@ -4002,13 +4353,13 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="40">
         <v>3</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="36">
         <v>4</v>
@@ -4016,7 +4367,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="42">
         <v>2</v>
@@ -4025,27 +4376,27 @@
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="48">
         <v>0</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="33">
         <v>0</v>
@@ -4053,13 +4404,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="40">
         <v>1</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="33">
         <v>-4</v>
@@ -4067,13 +4418,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="50">
         <v>2</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="33">
         <v>-3</v>
@@ -4081,13 +4432,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="40">
         <v>1</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="33">
         <v>-2</v>
@@ -4095,13 +4446,13 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="42">
         <v>2</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="36">
         <v>-1</v>
@@ -4110,23 +4461,23 @@
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="B26" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="40">
         <v>5</v>
@@ -4134,7 +4485,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="40">
         <v>3</v>
@@ -4142,7 +4493,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="40">
         <v>1</v>
@@ -4150,7 +4501,7 @@
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="40">
         <v>2</v>
@@ -4158,7 +4509,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="40">
         <v>-2</v>
@@ -4166,7 +4517,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="40">
         <v>-5</v>
@@ -4174,7 +4525,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="40">
         <v>2</v>
@@ -4182,7 +4533,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="40">
         <v>3</v>
@@ -4190,7 +4541,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="40">
         <v>3</v>
@@ -4198,7 +4549,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="42">
         <v>3</v>
@@ -4217,24 +4568,24 @@
     <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="54">
         <f>$B$9</f>
-        <v>15.270000000000001</v>
+        <v>20.3994</v>
       </c>
       <c r="D38" s="55">
         <f>_xll.PTreeNodeValue([1]treeCalc_1!$F$2,2)</f>
-        <v>15.270000000000001</v>
+        <v>9.2160000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="54"/>
       <c r="C39" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="54"/>
       <c r="C40" s="57">
         <f>_xll.PTreeNodeValue([1]treeCalc_1!$F$2,1)</f>
-        <v>15.270000000000001</v>
+        <v>9.2160000000000011</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4261,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5517000C-D995-4AA9-8548-846077CE0961}">
   <dimension ref="A1:H68"/>
   <sheetViews>
@@ -4281,31 +4632,31 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="G1" s="60" t="s">
         <v>89</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="33">
         <f>VLOOKUP(C2,Table211[#All],6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -4313,10 +4664,10 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>95</v>
       </c>
       <c r="D3" s="33">
         <f>VLOOKUP(C3,Table312[#All],2,FALSE)</f>
@@ -4328,7 +4679,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="33">
         <v>1.1000000000000001</v>
@@ -4337,15 +4688,15 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
       </c>
       <c r="D5" s="33">
         <f>VLOOKUP(C5,Table12[#All],2,FALSE)</f>
@@ -4357,10 +4708,10 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="33">
         <f>VLOOKUP(C6,Table13[#All],2,FALSE)</f>
@@ -4383,32 +4734,32 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="D10" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="E10" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="F10" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="G10" s="65" t="s">
         <v>107</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="67">
         <v>3</v>
@@ -4428,7 +4779,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="67">
         <v>0</v>
@@ -4448,7 +4799,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="67">
         <v>3</v>
@@ -4468,7 +4819,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -4488,7 +4839,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="67">
         <v>1</v>
@@ -4508,7 +4859,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="67">
         <v>1</v>
@@ -4528,7 +4879,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="67">
         <v>1</v>
@@ -4548,7 +4899,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="67">
         <v>1</v>
@@ -4568,7 +4919,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="67">
         <v>2</v>
@@ -4588,7 +4939,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="67">
         <v>5</v>
@@ -4608,7 +4959,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="67">
         <v>2</v>
@@ -4628,7 +4979,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="67">
         <v>1</v>
@@ -4648,19 +4999,19 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="67">
         <v>1</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="67">
         <v>2</v>
@@ -4668,19 +5019,19 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="67">
         <v>3</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="67">
         <v>6</v>
@@ -4688,7 +5039,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="67">
         <v>5</v>
@@ -4708,7 +5059,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="67">
         <v>5</v>
@@ -4728,7 +5079,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="67">
         <v>1</v>
@@ -4748,7 +5099,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="67">
         <v>2</v>
@@ -4768,7 +5119,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="67">
         <v>2</v>
@@ -4788,19 +5139,19 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="67">
         <v>5</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="67">
         <v>10</v>
@@ -4808,7 +5159,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="67">
         <v>0</v>
@@ -4827,141 +5178,141 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="C34" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="69" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="82"/>
+      <c r="B35" s="70" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="80"/>
-      <c r="B35" s="70" t="s">
-        <v>133</v>
       </c>
       <c r="C35" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="80"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="80"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="71">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="80"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="80"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="70" t="s">
         <v>137</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>138</v>
       </c>
       <c r="C40" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="80"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="73">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="80"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="71">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="80"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="74" t="s">
         <v>142</v>
-      </c>
-      <c r="B44" s="74" t="s">
-        <v>143</v>
       </c>
       <c r="C44" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="81"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="81"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="77">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="81"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="81"/>
+      <c r="A48" s="83"/>
       <c r="B48" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="77">
         <v>1</v>
@@ -4969,7 +5320,7 @@
     </row>
     <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="78">
         <v>0</v>
@@ -4977,7 +5328,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="71">
         <v>0</v>
@@ -4985,15 +5336,15 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -5001,7 +5352,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -5009,7 +5360,7 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -5017,7 +5368,7 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5025,7 +5376,7 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5033,7 +5384,7 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -5041,15 +5392,15 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="67">
         <v>5</v>
@@ -5057,7 +5408,7 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" s="67">
         <v>4</v>
@@ -5065,7 +5416,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="67">
         <v>4</v>
@@ -5073,7 +5424,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="67">
         <v>3</v>
@@ -5081,7 +5432,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="67">
         <v>2</v>
@@ -5089,7 +5440,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="67">
         <v>2</v>
@@ -5097,7 +5448,7 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" s="67">
         <v>2</v>
@@ -5105,7 +5456,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" s="67">
         <v>0</v>
@@ -5164,8 +5515,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7D1F95-1B1C-473E-8521-33C8A87F89F6}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9109AF29-40E1-4C7A-84BB-B07F63204A9C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -5179,7 +5530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2424D0A4-C181-45FA-B107-77F797C84109}">
   <dimension ref="B1:K141"/>
   <sheetViews>
@@ -5224,48 +5575,48 @@
     </row>
     <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
     </row>
     <row r="29" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="88" t="s">
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="93"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
@@ -5300,13 +5651,13 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="97" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="19">
@@ -5332,9 +5683,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="93"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -5358,9 +5709,9 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="93"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -5384,9 +5735,9 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="93"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -5410,9 +5761,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="93"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -5436,9 +5787,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="93"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -5462,9 +5813,9 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="93"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -5488,9 +5839,9 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="93"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -5514,9 +5865,9 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="93"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -5540,9 +5891,9 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B41" s="93"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="19">
         <v>10</v>
       </c>
@@ -5566,9 +5917,9 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="94"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
       <c r="E42" s="23">
         <v>11</v>
       </c>
@@ -5592,13 +5943,13 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C43" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="99" t="s">
+      <c r="D43" s="101" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="19">
@@ -5624,9 +5975,9 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="93"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="19">
         <v>2</v>
       </c>
@@ -5650,9 +6001,9 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="93"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
       <c r="E45" s="19">
         <v>3</v>
       </c>
@@ -5676,9 +6027,9 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="93"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="19">
         <v>4</v>
       </c>
@@ -5702,9 +6053,9 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="93"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
       <c r="E47" s="19">
         <v>5</v>
       </c>
@@ -5728,9 +6079,9 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="93"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="19">
         <v>6</v>
       </c>
@@ -5754,9 +6105,9 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="93"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
       <c r="E49" s="19">
         <v>7</v>
       </c>
@@ -5780,9 +6131,9 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="93"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="19">
         <v>8</v>
       </c>
@@ -5806,9 +6157,9 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="93"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
       <c r="E51" s="19">
         <v>9</v>
       </c>
@@ -5832,9 +6183,9 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" s="93"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
       <c r="E52" s="19">
         <v>10</v>
       </c>
@@ -5858,9 +6209,9 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B53" s="94"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
       <c r="E53" s="23">
         <v>11</v>
       </c>
@@ -5884,13 +6235,13 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="99" t="s">
+      <c r="C54" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="99" t="s">
+      <c r="D54" s="101" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="19">
@@ -5916,9 +6267,9 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B55" s="93"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
       <c r="E55" s="19">
         <v>2</v>
       </c>
@@ -5942,9 +6293,9 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="93"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
       <c r="E56" s="19">
         <v>3</v>
       </c>
@@ -5968,9 +6319,9 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B57" s="93"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
       <c r="E57" s="19">
         <v>4</v>
       </c>
@@ -5994,9 +6345,9 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B58" s="93"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="98"/>
       <c r="E58" s="19">
         <v>5</v>
       </c>
@@ -6020,9 +6371,9 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B59" s="93"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
       <c r="E59" s="19">
         <v>6</v>
       </c>
@@ -6046,9 +6397,9 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B60" s="93"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="19">
         <v>7</v>
       </c>
@@ -6072,9 +6423,9 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B61" s="93"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
       <c r="E61" s="19">
         <v>8</v>
       </c>
@@ -6098,9 +6449,9 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="93"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="19">
         <v>9</v>
       </c>
@@ -6124,9 +6475,9 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="93"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
       <c r="E63" s="19">
         <v>10</v>
       </c>
@@ -6150,9 +6501,9 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B64" s="94"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
       <c r="E64" s="23">
         <v>11</v>
       </c>
@@ -6176,13 +6527,13 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="99" t="s">
+      <c r="C65" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="99" t="s">
+      <c r="D65" s="101" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="19">
@@ -6208,9 +6559,9 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B66" s="93"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
       <c r="E66" s="19">
         <v>2</v>
       </c>
@@ -6234,9 +6585,9 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B67" s="93"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
       <c r="E67" s="19">
         <v>3</v>
       </c>
@@ -6260,9 +6611,9 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B68" s="93"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
       <c r="E68" s="19">
         <v>4</v>
       </c>
@@ -6286,9 +6637,9 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B69" s="93"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
       <c r="E69" s="19">
         <v>5</v>
       </c>
@@ -6312,9 +6663,9 @@
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B70" s="93"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="98"/>
       <c r="E70" s="19">
         <v>6</v>
       </c>
@@ -6338,9 +6689,9 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B71" s="93"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
       <c r="E71" s="19">
         <v>7</v>
       </c>
@@ -6364,9 +6715,9 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="93"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="96"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
       <c r="E72" s="19">
         <v>8</v>
       </c>
@@ -6390,9 +6741,9 @@
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B73" s="93"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
       <c r="E73" s="19">
         <v>9</v>
       </c>
@@ -6416,9 +6767,9 @@
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B74" s="93"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="98"/>
       <c r="E74" s="19">
         <v>10</v>
       </c>
@@ -6442,9 +6793,9 @@
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B75" s="94"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
       <c r="E75" s="23">
         <v>11</v>
       </c>
@@ -6468,13 +6819,13 @@
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B76" s="98" t="s">
+      <c r="B76" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="99" t="s">
+      <c r="C76" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="99" t="s">
+      <c r="D76" s="101" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="19">
@@ -6500,9 +6851,9 @@
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B77" s="93"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -6526,9 +6877,9 @@
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B78" s="93"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -6552,9 +6903,9 @@
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B79" s="93"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="98"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -6578,9 +6929,9 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B80" s="93"/>
-      <c r="C80" s="96"/>
-      <c r="D80" s="96"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="98"/>
       <c r="E80" s="19">
         <v>5</v>
       </c>
@@ -6604,9 +6955,9 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="93"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="98"/>
       <c r="E81" s="19">
         <v>6</v>
       </c>
@@ -6630,9 +6981,9 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B82" s="93"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="98"/>
       <c r="E82" s="19">
         <v>7</v>
       </c>
@@ -6656,9 +7007,9 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B83" s="93"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
       <c r="E83" s="19">
         <v>8</v>
       </c>
@@ -6682,9 +7033,9 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B84" s="93"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="96"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="98"/>
       <c r="E84" s="19">
         <v>9</v>
       </c>
@@ -6708,9 +7059,9 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B85" s="93"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="98"/>
       <c r="E85" s="19">
         <v>10</v>
       </c>
@@ -6734,9 +7085,9 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B86" s="94"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
       <c r="E86" s="23">
         <v>11</v>
       </c>
@@ -6760,13 +7111,13 @@
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B87" s="98" t="s">
+      <c r="B87" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="99" t="s">
+      <c r="C87" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="99" t="s">
+      <c r="D87" s="101" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="19">
@@ -6792,9 +7143,9 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B88" s="93"/>
-      <c r="C88" s="96"/>
-      <c r="D88" s="96"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="98"/>
       <c r="E88" s="19">
         <v>2</v>
       </c>
@@ -6818,9 +7169,9 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B89" s="93"/>
-      <c r="C89" s="96"/>
-      <c r="D89" s="96"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="98"/>
       <c r="E89" s="19">
         <v>3</v>
       </c>
@@ -6844,9 +7195,9 @@
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B90" s="93"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="98"/>
       <c r="E90" s="19">
         <v>4</v>
       </c>
@@ -6870,9 +7221,9 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B91" s="93"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="98"/>
       <c r="E91" s="19">
         <v>5</v>
       </c>
@@ -6896,9 +7247,9 @@
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B92" s="93"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="96"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="98"/>
+      <c r="D92" s="98"/>
       <c r="E92" s="19">
         <v>6</v>
       </c>
@@ -6922,9 +7273,9 @@
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B93" s="93"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="98"/>
       <c r="E93" s="19">
         <v>7</v>
       </c>
@@ -6948,9 +7299,9 @@
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B94" s="93"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="98"/>
       <c r="E94" s="19">
         <v>8</v>
       </c>
@@ -6974,9 +7325,9 @@
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B95" s="93"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="98"/>
       <c r="E95" s="19">
         <v>9</v>
       </c>
@@ -7000,9 +7351,9 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B96" s="93"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="96"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="98"/>
       <c r="E96" s="19">
         <v>10</v>
       </c>
@@ -7026,9 +7377,9 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B97" s="94"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="97"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="99"/>
       <c r="E97" s="23">
         <v>11</v>
       </c>
@@ -7052,13 +7403,13 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B98" s="98" t="s">
+      <c r="B98" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="99" t="s">
+      <c r="C98" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="99" t="s">
+      <c r="D98" s="101" t="s">
         <v>23</v>
       </c>
       <c r="E98" s="19">
@@ -7084,9 +7435,9 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B99" s="93"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="96"/>
+      <c r="B99" s="95"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="98"/>
       <c r="E99" s="19">
         <v>2</v>
       </c>
@@ -7110,9 +7461,9 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B100" s="93"/>
-      <c r="C100" s="96"/>
-      <c r="D100" s="96"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="98"/>
       <c r="E100" s="19">
         <v>3</v>
       </c>
@@ -7136,9 +7487,9 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B101" s="93"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="98"/>
       <c r="E101" s="19">
         <v>4</v>
       </c>
@@ -7162,9 +7513,9 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B102" s="93"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="96"/>
+      <c r="B102" s="95"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="98"/>
       <c r="E102" s="19">
         <v>5</v>
       </c>
@@ -7188,9 +7539,9 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B103" s="93"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="96"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98"/>
       <c r="E103" s="19">
         <v>6</v>
       </c>
@@ -7214,9 +7565,9 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B104" s="93"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="96"/>
+      <c r="B104" s="95"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="98"/>
       <c r="E104" s="19">
         <v>7</v>
       </c>
@@ -7240,9 +7591,9 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B105" s="93"/>
-      <c r="C105" s="96"/>
-      <c r="D105" s="96"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="98"/>
       <c r="E105" s="19">
         <v>8</v>
       </c>
@@ -7266,9 +7617,9 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B106" s="93"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="98"/>
       <c r="E106" s="19">
         <v>9</v>
       </c>
@@ -7292,9 +7643,9 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B107" s="93"/>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
+      <c r="B107" s="95"/>
+      <c r="C107" s="98"/>
+      <c r="D107" s="98"/>
       <c r="E107" s="19">
         <v>10</v>
       </c>
@@ -7318,9 +7669,9 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B108" s="94"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="97"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="99"/>
       <c r="E108" s="23">
         <v>11</v>
       </c>
@@ -7344,13 +7695,13 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B109" s="98" t="s">
+      <c r="B109" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="99" t="s">
+      <c r="C109" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D109" s="99" t="s">
+      <c r="D109" s="101" t="s">
         <v>25</v>
       </c>
       <c r="E109" s="19">
@@ -7376,9 +7727,9 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B110" s="93"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="96"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="98"/>
       <c r="E110" s="19">
         <v>2</v>
       </c>
@@ -7402,9 +7753,9 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="93"/>
-      <c r="C111" s="96"/>
-      <c r="D111" s="96"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="98"/>
       <c r="E111" s="19">
         <v>3</v>
       </c>
@@ -7428,9 +7779,9 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B112" s="93"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="96"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="98"/>
       <c r="E112" s="19">
         <v>4</v>
       </c>
@@ -7454,9 +7805,9 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B113" s="93"/>
-      <c r="C113" s="96"/>
-      <c r="D113" s="96"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="98"/>
       <c r="E113" s="19">
         <v>5</v>
       </c>
@@ -7480,9 +7831,9 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B114" s="93"/>
-      <c r="C114" s="96"/>
-      <c r="D114" s="96"/>
+      <c r="B114" s="95"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="98"/>
       <c r="E114" s="19">
         <v>6</v>
       </c>
@@ -7506,9 +7857,9 @@
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B115" s="93"/>
-      <c r="C115" s="96"/>
-      <c r="D115" s="96"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
       <c r="E115" s="19">
         <v>7</v>
       </c>
@@ -7532,9 +7883,9 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B116" s="93"/>
-      <c r="C116" s="96"/>
-      <c r="D116" s="96"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="98"/>
       <c r="E116" s="19">
         <v>8</v>
       </c>
@@ -7558,9 +7909,9 @@
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B117" s="93"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="98"/>
       <c r="E117" s="19">
         <v>9</v>
       </c>
@@ -7584,9 +7935,9 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B118" s="93"/>
-      <c r="C118" s="96"/>
-      <c r="D118" s="96"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="98"/>
       <c r="E118" s="19">
         <v>10</v>
       </c>
@@ -7610,9 +7961,9 @@
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B119" s="94"/>
-      <c r="C119" s="97"/>
-      <c r="D119" s="97"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="99"/>
+      <c r="D119" s="99"/>
       <c r="E119" s="23">
         <v>11</v>
       </c>
@@ -7636,13 +7987,13 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B120" s="98" t="s">
+      <c r="B120" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="99" t="s">
+      <c r="C120" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="99" t="s">
+      <c r="D120" s="101" t="s">
         <v>27</v>
       </c>
       <c r="E120" s="19">
@@ -7668,9 +8019,9 @@
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B121" s="93"/>
-      <c r="C121" s="96"/>
-      <c r="D121" s="96"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="98"/>
+      <c r="D121" s="98"/>
       <c r="E121" s="19">
         <v>2</v>
       </c>
@@ -7694,9 +8045,9 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B122" s="93"/>
-      <c r="C122" s="96"/>
-      <c r="D122" s="96"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="98"/>
       <c r="E122" s="19">
         <v>3</v>
       </c>
@@ -7720,9 +8071,9 @@
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B123" s="93"/>
-      <c r="C123" s="96"/>
-      <c r="D123" s="96"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="98"/>
+      <c r="D123" s="98"/>
       <c r="E123" s="19">
         <v>4</v>
       </c>
@@ -7746,9 +8097,9 @@
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B124" s="93"/>
-      <c r="C124" s="96"/>
-      <c r="D124" s="96"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="98"/>
       <c r="E124" s="19">
         <v>5</v>
       </c>
@@ -7772,9 +8123,9 @@
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B125" s="93"/>
-      <c r="C125" s="96"/>
-      <c r="D125" s="96"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="98"/>
       <c r="E125" s="19">
         <v>6</v>
       </c>
@@ -7798,9 +8149,9 @@
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B126" s="93"/>
-      <c r="C126" s="96"/>
-      <c r="D126" s="96"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="98"/>
+      <c r="D126" s="98"/>
       <c r="E126" s="19">
         <v>7</v>
       </c>
@@ -7824,9 +8175,9 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B127" s="93"/>
-      <c r="C127" s="96"/>
-      <c r="D127" s="96"/>
+      <c r="B127" s="95"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="98"/>
       <c r="E127" s="19">
         <v>8</v>
       </c>
@@ -7850,9 +8201,9 @@
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B128" s="93"/>
-      <c r="C128" s="96"/>
-      <c r="D128" s="96"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="98"/>
+      <c r="D128" s="98"/>
       <c r="E128" s="19">
         <v>9</v>
       </c>
@@ -7876,9 +8227,9 @@
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B129" s="93"/>
-      <c r="C129" s="96"/>
-      <c r="D129" s="96"/>
+      <c r="B129" s="95"/>
+      <c r="C129" s="98"/>
+      <c r="D129" s="98"/>
       <c r="E129" s="19">
         <v>10</v>
       </c>
@@ -7902,9 +8253,9 @@
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B130" s="94"/>
-      <c r="C130" s="97"/>
-      <c r="D130" s="97"/>
+      <c r="B130" s="96"/>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
       <c r="E130" s="23">
         <v>11</v>
       </c>
@@ -7928,13 +8279,13 @@
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B131" s="98" t="s">
+      <c r="B131" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C131" s="99" t="s">
+      <c r="C131" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="99" t="s">
+      <c r="D131" s="101" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="19">
@@ -7960,9 +8311,9 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B132" s="93"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="96"/>
+      <c r="B132" s="95"/>
+      <c r="C132" s="98"/>
+      <c r="D132" s="98"/>
       <c r="E132" s="19">
         <v>2</v>
       </c>
@@ -7986,9 +8337,9 @@
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B133" s="93"/>
-      <c r="C133" s="96"/>
-      <c r="D133" s="96"/>
+      <c r="B133" s="95"/>
+      <c r="C133" s="98"/>
+      <c r="D133" s="98"/>
       <c r="E133" s="19">
         <v>3</v>
       </c>
@@ -8012,9 +8363,9 @@
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B134" s="93"/>
-      <c r="C134" s="96"/>
-      <c r="D134" s="96"/>
+      <c r="B134" s="95"/>
+      <c r="C134" s="98"/>
+      <c r="D134" s="98"/>
       <c r="E134" s="19">
         <v>4</v>
       </c>
@@ -8038,9 +8389,9 @@
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B135" s="93"/>
-      <c r="C135" s="96"/>
-      <c r="D135" s="96"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="98"/>
       <c r="E135" s="19">
         <v>5</v>
       </c>
@@ -8064,9 +8415,9 @@
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B136" s="93"/>
-      <c r="C136" s="96"/>
-      <c r="D136" s="96"/>
+      <c r="B136" s="95"/>
+      <c r="C136" s="98"/>
+      <c r="D136" s="98"/>
       <c r="E136" s="19">
         <v>6</v>
       </c>
@@ -8090,9 +8441,9 @@
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B137" s="93"/>
-      <c r="C137" s="96"/>
-      <c r="D137" s="96"/>
+      <c r="B137" s="95"/>
+      <c r="C137" s="98"/>
+      <c r="D137" s="98"/>
       <c r="E137" s="19">
         <v>7</v>
       </c>
@@ -8116,9 +8467,9 @@
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B138" s="93"/>
-      <c r="C138" s="96"/>
-      <c r="D138" s="96"/>
+      <c r="B138" s="95"/>
+      <c r="C138" s="98"/>
+      <c r="D138" s="98"/>
       <c r="E138" s="19">
         <v>8</v>
       </c>
@@ -8142,9 +8493,9 @@
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B139" s="93"/>
-      <c r="C139" s="96"/>
-      <c r="D139" s="96"/>
+      <c r="B139" s="95"/>
+      <c r="C139" s="98"/>
+      <c r="D139" s="98"/>
       <c r="E139" s="19">
         <v>9</v>
       </c>
@@ -8168,9 +8519,9 @@
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="93"/>
-      <c r="C140" s="96"/>
-      <c r="D140" s="96"/>
+      <c r="B140" s="95"/>
+      <c r="C140" s="98"/>
+      <c r="D140" s="98"/>
       <c r="E140" s="19">
         <v>10</v>
       </c>
@@ -8194,9 +8545,9 @@
       </c>
     </row>
     <row r="141" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B141" s="100"/>
-      <c r="C141" s="101"/>
-      <c r="D141" s="101"/>
+      <c r="B141" s="102"/>
+      <c r="C141" s="103"/>
+      <c r="D141" s="103"/>
       <c r="E141" s="20">
         <v>11</v>
       </c>
